--- a/doc/log/log_201608040210_houjie.xlsx
+++ b/doc/log/log_201608040210_houjie.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17">
   <si>
     <t>周次</t>
   </si>
@@ -62,6 +62,12 @@
   </si>
   <si>
     <t>尝试完善实体类，</t>
+  </si>
+  <si>
+    <t>晚上九点到十点</t>
+  </si>
+  <si>
+    <t>更改完善类的信息</t>
   </si>
 </sst>
 </file>
@@ -69,10 +75,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -84,22 +90,51 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -114,7 +149,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -122,53 +157,17 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -188,6 +187,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -199,13 +212,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -236,37 +242,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -278,7 +368,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -290,7 +392,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -302,121 +410,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -455,6 +461,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -484,17 +505,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -502,8 +517,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -518,25 +533,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -545,143 +551,146 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1034,7 +1043,7 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -1130,21 +1139,19 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" s="1" customFormat="1" spans="1:1">
-      <c r="A9" s="1">
-        <v>11</v>
+    <row r="9" s="1" customFormat="1" ht="27" spans="1:3">
+      <c r="A9" s="3">
+        <v>43251</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
-    <row r="10" s="1" customFormat="1" spans="1:1">
-      <c r="A10" s="1">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" s="1" customFormat="1" spans="1:1">
-      <c r="A11" s="1">
-        <v>11</v>
-      </c>
-    </row>
+    <row r="10" s="1" customFormat="1"/>
+    <row r="11" s="1" customFormat="1"/>
     <row r="12" s="1" customFormat="1"/>
     <row r="13" s="1" customFormat="1"/>
   </sheetData>
